--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30698\Documents\GitHub\DataAnalytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D9374-90EE-4581-9F14-2A5C6E5A7BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D34493-B508-4AEC-BA95-F3994AD37182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Accidents_Dec21_updated" sheetId="1" r:id="rId1"/>
@@ -940,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,25 +955,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,23 +996,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,2893 +1295,2960 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="39.7109375" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="41.7109375" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" customWidth="1"/>
+    <col min="26" max="26" width="32.85546875" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="28" max="28" width="36.5703125" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" customWidth="1"/>
+    <col min="41" max="41" width="16" customWidth="1"/>
+    <col min="42" max="42" width="19.5703125" customWidth="1"/>
+    <col min="44" max="44" width="23.140625" customWidth="1"/>
+    <col min="45" max="45" width="28.5703125" customWidth="1"/>
+    <col min="46" max="46" width="22.85546875" customWidth="1"/>
+    <col min="47" max="47" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>42408.025787037041</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>42408.275787037041</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>40.108909999999902</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>-83.092860000000002</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>40.11206</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>-83.031869999999998</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>3.23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>43017</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="11">
         <v>42408.036805555559</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>42.1</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="10">
         <v>36.1</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="10">
         <v>58</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>29.76</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>10</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>10.4</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AE2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>42408.247453703705</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>42408.497453703705</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>39.86542</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>-84.062799999999996</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>39.865009999999998</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>-84.048730000000006</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.747</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>45424</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="11">
         <v>42408.248611111114</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>36.9</v>
       </c>
-      <c r="X3">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10">
         <v>91</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>29.68</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <v>10</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC3">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3">
         <v>0.02</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
+      <c r="AE3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>42408.260868055557</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>42408.510868055557</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>39.10266</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>-84.524680000000004</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>39.102089999999997</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>-84.523960000000002</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>45203</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="11">
         <v>42408.245138888888</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>36</v>
       </c>
-      <c r="X4">
+      <c r="W4" s="10"/>
+      <c r="X4" s="10">
         <v>97</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>29.7</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <v>10</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC4">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3">
         <v>0.02</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="b">
+      <c r="AE4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AJ4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>42408.285937499997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>42408.535937499997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>41.062129999999897</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>-81.537840000000003</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>41.062170000000002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>-81.535469999999904</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.123</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>44311</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="11">
         <v>42408.287499999999</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>39</v>
       </c>
-      <c r="X5">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10">
         <v>55</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="3">
         <v>29.65</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <v>10</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="AE5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="AT5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>42408.328969907408</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>42408.578969907408</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>39.172393</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>-84.492791999999994</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>39.170476000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>-84.501797999999994</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>45217</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="11">
         <v>42408.328472222223</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>37</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="10">
         <v>29.8</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="10">
         <v>93</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>29.69</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <v>10</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="3">
         <v>10.4</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" t="s">
+      <c r="AE6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>42408.345104166663</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>42408.595104166663</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>39.06324</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>-84.032430000000005</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>39.067309999999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>-84.058509999999998</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>1.4269999999999901</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>45176</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="11">
         <v>42408.344444444447</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>35.6</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="10">
         <v>29.2</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="10">
         <v>100</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="3">
         <v>29.66</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <v>10</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="3">
         <v>8.1</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="b">
+      <c r="AE7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" t="s">
+      <c r="AQ7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>42408.344224537039</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>42408.594224537039</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>39.775649999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>-84.186030000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>39.772750000000002</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>-84.188050000000004</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.22699999999999901</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>45404</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="11">
         <v>42408.345833333333</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="X8">
+      <c r="W8" s="10"/>
+      <c r="X8" s="10">
         <v>100</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="3">
         <v>29.63</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <v>3</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AE8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>42408.49428240741</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>42408.74428240741</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>41.375309999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>-81.820169999999905</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>41.36786</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>-81.821740000000005</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0.52100000000000002</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>44130</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="11">
         <v>42408.493750000001</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>33.1</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="10">
         <v>30</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="10">
         <v>92</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="3">
         <v>29.63</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <v>0.5</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="3">
         <v>3.5</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="3">
         <v>0.08</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="b">
+      <c r="AE9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" t="s">
+      <c r="AJ9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>42408.597187500003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>42408.847187500003</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>40.702247</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>-84.075886999999994</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>40.699109999999997</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>-84.084293000000002</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.49099999999999999</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>45806</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="11">
         <v>42408.578472222223</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>39</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="10">
         <v>31.8</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="10">
         <v>70</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="3">
         <v>29.59</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="4">
         <v>10</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="3">
         <v>11.5</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" t="s">
+      <c r="AE10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>42408.636608796296</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>42408.886608796296</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>40.109310000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>-82.968490000000003</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>40.110779999999998</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>-82.983999999999995</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>0.82599999999999996</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>43081</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="11">
         <v>42408.633333333331</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>32</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="10">
         <v>28.7</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="10">
         <v>100</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="3">
         <v>29.59</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="4">
         <v>0.5</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="3">
         <v>3.5</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU11" t="s">
+      <c r="AE11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU11" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>42408.655439814815</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>42408.905439814815</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>39.192880000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>-84.477230000000006</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>39.196150000000003</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>-84.473349999999996</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.307</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>45216</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="11">
         <v>42408.657638888886</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="10">
         <v>29.6</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="10">
         <v>100</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <v>29.66</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <v>3</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="3">
         <v>0.03</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="AE12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>42408.702048611114</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>42408.952048611114</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>39.138770000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>-84.533940000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>39.139769999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>-84.534300000000002</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <v>45225</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="11">
         <v>42408.703472222223</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>35.1</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="10">
         <v>32.200000000000003</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="10">
         <v>96</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="3">
         <v>29.69</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="4">
         <v>10</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="3">
         <v>3.5</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="b">
+      <c r="AE13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="b">
+      <c r="AH13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AQ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" t="s">
+      <c r="AQ13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>42408.727534722224</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="8">
         <v>42408.977534722224</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>41.4739</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>-81.704233000000002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>41.473880000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>-81.705590000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
         <v>44113</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="11">
         <v>42408.73333333333</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="4">
         <v>33.1</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="10">
         <v>24.4</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="10">
         <v>96</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="3">
         <v>29.59</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="4">
         <v>1.8</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="3">
         <v>11.5</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AE14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU14" t="s">
+      <c r="AE14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU14" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>42408.729375000003</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="8">
         <v>42408.979375000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>39.582242000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>-83.677813999999998</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>39.603012999999997</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>-83.637318999999906</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>2.59</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>45335</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="11">
         <v>42408.727777777778</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="10">
         <v>28.6</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="10">
         <v>93</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="3">
         <v>29.64</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="4">
         <v>1</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="3">
         <v>5.8</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU15" t="s">
+      <c r="AE15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>42408.7577662037</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="8">
         <v>42409.0077662037</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>40.151784999999997</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>-81.312635</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>40.151747</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>-81.312681999999995</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>48999</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
         <v>43973</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="11">
         <v>42408.765972222223</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="4">
         <v>33.1</v>
       </c>
-      <c r="X16">
+      <c r="W16" s="10"/>
+      <c r="X16" s="10">
         <v>92</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="3">
         <v>29.62</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="4">
         <v>10</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="s">
+      <c r="AE16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU16" t="s">
+      <c r="AS16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>42408.7577662037</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="8">
         <v>42409.0077662037</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>40.151747</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>-81.312681999999995</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>40.151784999999997</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>-81.312635</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>22549</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="11">
         <v>42408.765972222223</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="4">
         <v>33.1</v>
       </c>
-      <c r="X17">
+      <c r="W17" s="10"/>
+      <c r="X17" s="10">
         <v>92</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="3">
         <v>29.62</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="4">
         <v>10</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="s">
+      <c r="AE17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU17" t="s">
+      <c r="AS17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>42408.824791666666</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="8">
         <v>42409.074791666666</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>39.972409999999897</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>-82.846950000000007</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>39.985289999999999</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>-82.856669999999994</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>1.028</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>43213</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="11">
         <v>42408.82708333333</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="4">
         <v>34</v>
       </c>
-      <c r="X18">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10">
         <v>100</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <v>29.65</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="4">
         <v>6</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC18">
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
+      <c r="AE18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AS18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AT18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AU18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>42408.824791666666</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="8">
         <v>42409.074791666666</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>39.983800000000002</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>-82.856569999999905</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>39.972499999999997</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>-82.847459999999998</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.91799999999999904</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>43213</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="11">
         <v>42408.82708333333</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="4">
         <v>34</v>
       </c>
-      <c r="X19">
+      <c r="W19" s="10"/>
+      <c r="X19" s="10">
         <v>100</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="3">
         <v>29.65</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="4">
         <v>6</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC19">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="s">
+      <c r="AE19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AS19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AU19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>42408.842615740738</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="8">
         <v>42409.092615740738</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>40.02664</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>-82.994399999999999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>40.012279999999997</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>-82.992180000000005</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.999</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>43224</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="11">
         <v>42408.841666666667</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="10">
         <v>27</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="10">
         <v>100</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <v>29.63</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="4">
         <v>1</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="3">
         <v>8.1</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AE20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
+      <c r="AE20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AS20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AT20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AU20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>42408.875196759262</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <v>42409.125196759262</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>41.679361</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>-83.573036999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>41.666123999999897</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>-83.566334999999995</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>0.97799999999999998</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>43610</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="11">
         <v>42408.871527777781</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="4">
         <v>33.4</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="10">
         <v>26.6</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="10">
         <v>79</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="3">
         <v>29.62</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="4">
         <v>10</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="3">
         <v>8.1</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="s">
+      <c r="AE21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AS21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AT21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AU21" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -4312,7 +4388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -4452,7 +4528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -4592,7 +4668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -4732,7 +4808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -4872,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -5009,7 +5085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -5146,7 +5222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5283,7 +5359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -5423,7 +5499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -5560,7 +5636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -5700,7 +5776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -5840,7 +5916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -5980,7 +6056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -6120,7 +6196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -6257,7 +6333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -6394,7 +6470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -6531,7 +6607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -6671,7 +6747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6811,7 +6887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -6951,7 +7027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -7091,7 +7167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -7231,7 +7307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -7374,7 +7450,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -7517,7 +7593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>274</v>
       </c>
@@ -7657,7 +7733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -7797,7 +7873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>283</v>
       </c>
@@ -7937,7 +8013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -8080,7 +8156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -8217,51 +8293,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="6" t="s">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="6" t="s">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8271,5 +8347,6 @@
     <mergeCell ref="C61:F62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30698\Documents\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D34493-B508-4AEC-BA95-F3994AD37182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377F10B-D232-4715-906D-F03481835BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Accidents_Dec21_updated" sheetId="1" r:id="rId1"/>
@@ -918,13 +918,13 @@
     <t>Henry</t>
   </si>
   <si>
-    <t xml:space="preserve">  I don’t understand</t>
-  </si>
-  <si>
-    <t>A lot of false values not enough truee</t>
-  </si>
-  <si>
-    <t>Change from day-night to 1-0(binary)</t>
+    <t>Deleted Columns</t>
+  </si>
+  <si>
+    <t>Combined/Normalized Columns</t>
+  </si>
+  <si>
+    <t>Keeped Columns</t>
   </si>
 </sst>
 </file>
@@ -940,18 +940,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -967,19 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,26 +984,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1295,2960 +1280,2960 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="98.44140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="39.7109375" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" customWidth="1"/>
-    <col min="22" max="22" width="41.7109375" customWidth="1"/>
-    <col min="23" max="23" width="32.42578125" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" customWidth="1"/>
-    <col min="26" max="26" width="32.85546875" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" customWidth="1"/>
-    <col min="28" max="28" width="36.5703125" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
+    <col min="20" max="20" width="39.6640625" customWidth="1"/>
+    <col min="21" max="21" width="33.33203125" customWidth="1"/>
+    <col min="22" max="22" width="41.6640625" customWidth="1"/>
+    <col min="23" max="23" width="32.44140625" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" customWidth="1"/>
+    <col min="25" max="25" width="23.44140625" customWidth="1"/>
+    <col min="26" max="26" width="32.88671875" customWidth="1"/>
+    <col min="27" max="27" width="23.44140625" customWidth="1"/>
+    <col min="28" max="28" width="36.5546875" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.44140625" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="42" max="42" width="19.5703125" customWidth="1"/>
-    <col min="44" max="44" width="23.140625" customWidth="1"/>
-    <col min="45" max="45" width="28.5703125" customWidth="1"/>
-    <col min="46" max="46" width="22.85546875" customWidth="1"/>
-    <col min="47" max="47" width="22.28515625" customWidth="1"/>
+    <col min="42" max="42" width="19.5546875" customWidth="1"/>
+    <col min="44" max="44" width="23.109375" customWidth="1"/>
+    <col min="45" max="45" width="28.5546875" customWidth="1"/>
+    <col min="46" max="46" width="22.88671875" customWidth="1"/>
+    <col min="47" max="47" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>42408.025787037041</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>42408.275787037041</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>40.108909999999902</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="2">
         <v>-83.092860000000002</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="2">
         <v>40.11206</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="2">
         <v>-83.031869999999998</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>3.23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>43017</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="4">
         <v>42408.036805555559</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>42.1</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="2">
         <v>36.1</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="8">
         <v>58</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>29.76</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="3">
         <v>10</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="2">
         <v>10.4</v>
       </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AE2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>42408.247453703705</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>42408.497453703705</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>39.86542</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="2">
         <v>-84.062799999999996</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <v>39.865009999999998</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="2">
         <v>-84.048730000000006</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.747</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>45424</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="4">
         <v>42408.248611111114</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>36.9</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10">
+      <c r="W3" s="2"/>
+      <c r="X3" s="8">
         <v>91</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <v>29.68</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>10</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2">
         <v>0.02</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AE3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>42408.260868055557</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>42408.510868055557</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>39.10266</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>-84.524680000000004</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>39.102089999999997</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="2">
         <v>-84.523960000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>45203</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="4">
         <v>42408.245138888888</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>36</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10">
+      <c r="W4" s="2"/>
+      <c r="X4" s="8">
         <v>97</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <v>29.7</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>10</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3">
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2">
         <v>0.02</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3" t="b">
+      <c r="AE4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AJ4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AJ4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AS4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AT4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AU4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>42408.285937499997</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>42408.535937499997</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>41.062129999999897</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>-81.537840000000003</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>41.062170000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="2">
         <v>-81.535469999999904</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.123</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>44311</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="4">
         <v>42408.287499999999</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>39</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10">
+      <c r="W5" s="2"/>
+      <c r="X5" s="8">
         <v>55</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="2">
         <v>29.65</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>10</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="4" t="s">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AE5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AT5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>42408.328969907408</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>42408.578969907408</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>39.172393</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>-84.492791999999994</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>39.170476000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="2">
         <v>-84.501797999999994</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>45217</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="4">
         <v>42408.328472222223</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>37</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="2">
         <v>29.8</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="8">
         <v>93</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="2">
         <v>29.69</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <v>10</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <v>10.4</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="2">
         <v>0.01</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AE6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>42408.345104166663</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>42408.595104166663</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>39.06324</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="2">
         <v>-84.032430000000005</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>39.067309999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="2">
         <v>-84.058509999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1.4269999999999901</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>45176</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="4">
         <v>42408.344444444447</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>35.6</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="2">
         <v>29.2</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="8">
         <v>100</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="2">
         <v>29.66</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <v>10</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="2">
         <v>8.1</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="4" t="s">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="3" t="b">
+      <c r="AE7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AQ7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AQ7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>42408.344224537039</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>42408.594224537039</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>39.775649999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="2">
         <v>-84.186030000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>39.772750000000002</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="2">
         <v>-84.188050000000004</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.22699999999999901</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>45404</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="4">
         <v>42408.345833333333</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10">
+      <c r="W8" s="2"/>
+      <c r="X8" s="8">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="2">
         <v>29.63</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="3">
         <v>3</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="4" t="s">
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AE8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>42408.49428240741</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>42408.74428240741</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>41.375309999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="2">
         <v>-81.820169999999905</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>41.36786</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>-81.821740000000005</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>44130</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="4">
         <v>42408.493750000001</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>33.1</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="2">
         <v>30</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="8">
         <v>92</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="2">
         <v>29.63</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>0.5</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="2">
         <v>3.5</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="2">
         <v>0.08</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AE9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3" t="b">
+      <c r="AE9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AJ9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="4" t="s">
+      <c r="AJ9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>42408.597187500003</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>42408.847187500003</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>40.702247</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="2">
         <v>-84.075886999999994</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>40.699109999999997</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>-84.084293000000002</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.49099999999999999</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>45806</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="4">
         <v>42408.578472222223</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>39</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="2">
         <v>31.8</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="8">
         <v>70</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="2">
         <v>29.59</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>10</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <v>11.5</v>
       </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="4" t="s">
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AE10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>42408.636608796296</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>42408.886608796296</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>40.109310000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="2">
         <v>-82.968490000000003</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2">
         <v>40.110779999999998</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>-82.983999999999995</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>43081</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="4">
         <v>42408.633333333331</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>32</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="2">
         <v>28.7</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="8">
         <v>100</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="2">
         <v>29.59</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>0.5</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="2">
         <v>3.5</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AD11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU11" s="4" t="s">
+      <c r="AE11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU11" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>42408.655439814815</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>42408.905439814815</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>39.192880000000002</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>-84.477230000000006</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>39.196150000000003</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>-84.473349999999996</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.307</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>45216</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="4">
         <v>42408.657638888886</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="2">
         <v>29.6</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="8">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="2">
         <v>29.66</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>3</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="2">
         <v>0.03</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="4" t="s">
+      <c r="AE12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>42408.702048611114</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="4">
         <v>42408.952048611114</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>39.138770000000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="2">
         <v>-84.533940000000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <v>39.139769999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="2">
         <v>-84.534300000000002</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>45225</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="4">
         <v>42408.703472222223</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>35.1</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="8">
         <v>96</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="2">
         <v>29.69</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <v>10</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="2">
         <v>3.5</v>
       </c>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="4" t="s">
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3" t="b">
+      <c r="AE13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AH13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="3" t="b">
+      <c r="AH13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AQ13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" s="4" t="s">
+      <c r="AQ13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>42408.727534722224</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <v>42408.977534722224</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>41.4739</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="2">
         <v>-81.704233000000002</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="2">
         <v>41.473880000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>-81.705590000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>44113</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="4">
         <v>42408.73333333333</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>33.1</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="2">
         <v>24.4</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="8">
         <v>96</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="2">
         <v>29.59</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>1.8</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="2">
         <v>11.5</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AE14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU14" s="4" t="s">
+      <c r="AE14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU14" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>42408.729375000003</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <v>42408.979375000003</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>39.582242000000001</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="2">
         <v>-83.677813999999998</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2">
         <v>39.603012999999997</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>-83.637318999999906</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2.59</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>45335</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="4">
         <v>42408.727777777778</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="2">
         <v>28.6</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="8">
         <v>93</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="2">
         <v>29.64</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="3">
         <v>1</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="2">
         <v>5.8</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="2">
         <v>0.01</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AD15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AE15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU15" s="4" t="s">
+      <c r="AE15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU15" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>42408.7577662037</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="4">
         <v>42409.0077662037</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>40.151784999999997</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="2">
         <v>-81.312635</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>40.151747</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>-81.312681999999995</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>48999</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>43973</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="4">
         <v>42408.765972222223</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>33.1</v>
       </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10">
+      <c r="W16" s="2"/>
+      <c r="X16" s="8">
         <v>92</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="2">
         <v>29.62</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>10</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="4" t="s">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AE16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="4" t="s">
+      <c r="AE16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU16" s="4" t="s">
+      <c r="AS16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>42408.7577662037</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="4">
         <v>42409.0077662037</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>40.151747</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="2">
         <v>-81.312681999999995</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <v>40.151784999999997</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>-81.312635</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>22549</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="4">
         <v>42408.765972222223</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>33.1</v>
       </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10">
+      <c r="W17" s="2"/>
+      <c r="X17" s="8">
         <v>92</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="2">
         <v>29.62</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <v>10</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="4" t="s">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AE17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="4" t="s">
+      <c r="AE17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU17" s="4" t="s">
+      <c r="AS17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>42408.824791666666</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>42409.074791666666</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>39.972409999999897</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="2">
         <v>-82.846950000000007</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <v>39.985289999999999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="2">
         <v>-82.856669999999994</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1.028</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>43213</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="4">
         <v>42408.82708333333</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>34</v>
       </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10">
+      <c r="W18" s="2"/>
+      <c r="X18" s="8">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="2">
         <v>29.65</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>6</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AD18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="4" t="s">
+      <c r="AE18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS18" s="4" t="s">
+      <c r="AS18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT18" s="4" t="s">
+      <c r="AT18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU18" s="4" t="s">
+      <c r="AU18" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>42408.824791666666</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <v>42409.074791666666</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>39.983800000000002</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="2">
         <v>-82.856569999999905</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="2">
         <v>39.972499999999997</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="2">
         <v>-82.847459999999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.91799999999999904</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="9" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <v>43213</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="4">
         <v>42408.82708333333</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>34</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10">
+      <c r="W19" s="2"/>
+      <c r="X19" s="8">
         <v>100</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="2">
         <v>29.65</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="3">
         <v>6</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AD19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="4" t="s">
+      <c r="AE19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS19" s="4" t="s">
+      <c r="AS19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT19" s="4" t="s">
+      <c r="AT19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU19" s="4" t="s">
+      <c r="AU19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>42408.842615740738</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>42409.092615740738</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>40.02664</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="2">
         <v>-82.994399999999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>40.012279999999997</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>-82.992180000000005</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.999</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>43224</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="4">
         <v>42408.841666666667</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="2">
         <v>27</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="8">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="2">
         <v>29.63</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="3">
         <v>1</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="2">
         <v>8.1</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AE20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="4" t="s">
+      <c r="AE20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS20" s="4" t="s">
+      <c r="AS20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT20" s="4" t="s">
+      <c r="AT20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU20" s="4" t="s">
+      <c r="AU20" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <v>42408.875196759262</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="4">
         <v>42409.125196759262</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>41.679361</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="2">
         <v>-83.573036999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="2">
         <v>41.666123999999897</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="2">
         <v>-83.566334999999995</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="9" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>43610</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="4">
         <v>42408.871527777781</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>33.4</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="2">
         <v>26.6</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="8">
         <v>79</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="2">
         <v>29.62</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="3">
         <v>10</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="2">
         <v>8.1</v>
       </c>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="4" t="s">
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4" t="s">
+      <c r="AE21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS21" s="4" t="s">
+      <c r="AS21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT21" s="4" t="s">
+      <c r="AT21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AU21" s="4" t="s">
+      <c r="AU21" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -4388,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -4528,7 +4513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -4668,7 +4653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -4808,7 +4793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -4948,7 +4933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -5085,7 +5070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -5222,7 +5207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5359,7 +5344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -5499,7 +5484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -5636,7 +5621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -5776,7 +5761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -5916,7 +5901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -6056,7 +6041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -6196,7 +6181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -6333,7 +6318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -6470,7 +6455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -6607,7 +6592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -6747,7 +6732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6887,7 +6872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -7027,7 +7012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -7167,7 +7152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -7307,7 +7292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -7450,7 +7435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -7593,7 +7578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>274</v>
       </c>
@@ -7733,7 +7718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -7873,7 +7858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>283</v>
       </c>
@@ -8013,7 +7998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -8156,7 +8141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -8293,38 +8278,38 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
       <c r="C61" s="5" t="s">
         <v>299</v>
       </c>
@@ -8332,8 +8317,8 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>

--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30698\Documents\GitHub\DataAnalytics\Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377F10B-D232-4715-906D-F03481835BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BF9BF-E433-44B9-9F5F-8F34D560DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Accidents_Dec21_updated" sheetId="1" r:id="rId1"/>
@@ -990,17 +990,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1280,39 +1280,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="98.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" customWidth="1"/>
-    <col min="20" max="20" width="39.6640625" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" customWidth="1"/>
-    <col min="22" max="22" width="41.6640625" customWidth="1"/>
-    <col min="23" max="23" width="32.44140625" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" customWidth="1"/>
-    <col min="25" max="25" width="23.44140625" customWidth="1"/>
-    <col min="26" max="26" width="32.88671875" customWidth="1"/>
-    <col min="27" max="27" width="23.44140625" customWidth="1"/>
-    <col min="28" max="28" width="36.5546875" customWidth="1"/>
-    <col min="29" max="29" width="30.6640625" customWidth="1"/>
-    <col min="30" max="30" width="21.44140625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="39.7109375" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="41.7109375" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" customWidth="1"/>
+    <col min="26" max="26" width="32.85546875" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="28" max="28" width="36.5703125" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="42" max="42" width="19.5546875" customWidth="1"/>
-    <col min="44" max="44" width="23.109375" customWidth="1"/>
-    <col min="45" max="45" width="28.5546875" customWidth="1"/>
-    <col min="46" max="46" width="22.88671875" customWidth="1"/>
-    <col min="47" max="47" width="22.33203125" customWidth="1"/>
+    <col min="42" max="42" width="19.5703125" customWidth="1"/>
+    <col min="44" max="44" width="23.140625" customWidth="1"/>
+    <col min="45" max="45" width="28.5703125" customWidth="1"/>
+    <col min="46" max="46" width="22.85546875" customWidth="1"/>
+    <col min="47" max="47" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1346,19 +1346,19 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1367,7 +1367,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -1382,7 +1382,7 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -1442,20 +1442,20 @@
       <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1487,19 +1487,19 @@
         <v>48</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q2" s="2">
@@ -1508,7 +1508,7 @@
       <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -1523,7 +1523,7 @@
       <c r="W2" s="2">
         <v>36.1</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>58</v>
       </c>
       <c r="Y2" s="2">
@@ -1583,20 +1583,20 @@
       <c r="AQ2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1628,19 +1628,19 @@
         <v>61</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q3" s="2">
@@ -1649,7 +1649,7 @@
       <c r="R3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -1662,7 +1662,7 @@
         <v>36.9</v>
       </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <v>91</v>
       </c>
       <c r="Y3" s="2">
@@ -1720,20 +1720,20 @@
       <c r="AQ3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AU3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -1765,19 +1765,19 @@
         <v>68</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q4" s="2">
@@ -1786,7 +1786,7 @@
       <c r="R4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -1799,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="X4" s="8">
+      <c r="X4" s="6">
         <v>97</v>
       </c>
       <c r="Y4" s="2">
@@ -1857,20 +1857,20 @@
       <c r="AQ4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -1902,19 +1902,19 @@
         <v>76</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q5" s="2">
@@ -1923,7 +1923,7 @@
       <c r="R5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -1936,7 +1936,7 @@
         <v>39</v>
       </c>
       <c r="W5" s="2"/>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>55</v>
       </c>
       <c r="Y5" s="2">
@@ -1992,20 +1992,20 @@
       <c r="AQ5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AR5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AS5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AT5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2037,19 +2037,19 @@
         <v>82</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q6" s="2">
@@ -2058,7 +2058,7 @@
       <c r="R6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -2073,7 +2073,7 @@
       <c r="W6" s="2">
         <v>29.8</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <v>93</v>
       </c>
       <c r="Y6" s="2">
@@ -2133,20 +2133,20 @@
       <c r="AQ6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AR6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -2178,19 +2178,19 @@
         <v>85</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q7" s="2">
@@ -2199,7 +2199,7 @@
       <c r="R7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T7" s="2" t="s">
@@ -2214,7 +2214,7 @@
       <c r="W7" s="2">
         <v>29.2</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <v>100</v>
       </c>
       <c r="Y7" s="2">
@@ -2272,20 +2272,20 @@
       <c r="AQ7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AR7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -2317,19 +2317,19 @@
         <v>91</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q8" s="2">
@@ -2338,7 +2338,7 @@
       <c r="R8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -2351,7 +2351,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="8">
+      <c r="X8" s="6">
         <v>100</v>
       </c>
       <c r="Y8" s="2">
@@ -2409,20 +2409,20 @@
       <c r="AQ8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AR8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
@@ -2454,19 +2454,19 @@
         <v>94</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q9" s="2">
@@ -2475,7 +2475,7 @@
       <c r="R9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -2490,7 +2490,7 @@
       <c r="W9" s="2">
         <v>30</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="6">
         <v>92</v>
       </c>
       <c r="Y9" s="2">
@@ -2550,20 +2550,20 @@
       <c r="AQ9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AR9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -2595,19 +2595,19 @@
         <v>101</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="2">
@@ -2616,7 +2616,7 @@
       <c r="R10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T10" s="2" t="s">
@@ -2631,7 +2631,7 @@
       <c r="W10" s="2">
         <v>31.8</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="6">
         <v>70</v>
       </c>
       <c r="Y10" s="2">
@@ -2689,20 +2689,20 @@
       <c r="AQ10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AR10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
@@ -2734,19 +2734,19 @@
         <v>108</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="2">
@@ -2755,7 +2755,7 @@
       <c r="R11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -2770,7 +2770,7 @@
       <c r="W11" s="2">
         <v>28.7</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="6">
         <v>100</v>
       </c>
       <c r="Y11" s="2">
@@ -2830,20 +2830,20 @@
       <c r="AQ11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU11" s="7" t="s">
+      <c r="AR11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -2875,19 +2875,19 @@
         <v>114</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q12" s="2">
@@ -2896,7 +2896,7 @@
       <c r="R12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -2911,7 +2911,7 @@
       <c r="W12" s="2">
         <v>29.6</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="6">
         <v>100</v>
       </c>
       <c r="Y12" s="2">
@@ -2971,20 +2971,20 @@
       <c r="AQ12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="7" t="s">
+      <c r="AR12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -3016,19 +3016,19 @@
         <v>119</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="2">
@@ -3037,7 +3037,7 @@
       <c r="R13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T13" s="2" t="s">
@@ -3052,7 +3052,7 @@
       <c r="W13" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="6">
         <v>96</v>
       </c>
       <c r="Y13" s="2">
@@ -3110,20 +3110,20 @@
       <c r="AQ13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" s="7" t="s">
+      <c r="AR13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU13" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
@@ -3155,19 +3155,19 @@
         <v>123</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q14" s="2">
@@ -3176,7 +3176,7 @@
       <c r="R14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -3191,7 +3191,7 @@
       <c r="W14" s="2">
         <v>24.4</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="6">
         <v>96</v>
       </c>
       <c r="Y14" s="2">
@@ -3251,20 +3251,20 @@
       <c r="AQ14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU14" s="7" t="s">
+      <c r="AR14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>126</v>
       </c>
@@ -3296,19 +3296,19 @@
         <v>127</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q15" s="2">
@@ -3317,7 +3317,7 @@
       <c r="R15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -3332,7 +3332,7 @@
       <c r="W15" s="2">
         <v>28.6</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="6">
         <v>93</v>
       </c>
       <c r="Y15" s="2">
@@ -3392,20 +3392,20 @@
       <c r="AQ15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU15" s="7" t="s">
+      <c r="AR15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU15" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -3439,19 +3439,19 @@
       <c r="K16" s="2">
         <v>48999</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q16" s="2">
@@ -3460,7 +3460,7 @@
       <c r="R16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -3473,7 +3473,7 @@
         <v>33.1</v>
       </c>
       <c r="W16" s="2"/>
-      <c r="X16" s="8">
+      <c r="X16" s="6">
         <v>92</v>
       </c>
       <c r="Y16" s="2">
@@ -3529,20 +3529,20 @@
       <c r="AQ16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR16" s="7" t="s">
+      <c r="AR16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU16" s="7" t="s">
+      <c r="AS16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -3576,19 +3576,19 @@
       <c r="K17" s="2">
         <v>22549</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -3597,7 +3597,7 @@
       <c r="R17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T17" s="2" t="s">
@@ -3610,7 +3610,7 @@
         <v>33.1</v>
       </c>
       <c r="W17" s="2"/>
-      <c r="X17" s="8">
+      <c r="X17" s="6">
         <v>92</v>
       </c>
       <c r="Y17" s="2">
@@ -3666,20 +3666,20 @@
       <c r="AQ17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR17" s="7" t="s">
+      <c r="AR17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU17" s="7" t="s">
+      <c r="AS17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>144</v>
       </c>
@@ -3711,19 +3711,19 @@
         <v>145</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q18" s="2">
@@ -3732,7 +3732,7 @@
       <c r="R18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T18" s="2" t="s">
@@ -3745,7 +3745,7 @@
         <v>34</v>
       </c>
       <c r="W18" s="2"/>
-      <c r="X18" s="8">
+      <c r="X18" s="6">
         <v>100</v>
       </c>
       <c r="Y18" s="2">
@@ -3803,20 +3803,20 @@
       <c r="AQ18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR18" s="7" t="s">
+      <c r="AR18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS18" s="7" t="s">
+      <c r="AS18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT18" s="7" t="s">
+      <c r="AT18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU18" s="7" t="s">
+      <c r="AU18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>148</v>
       </c>
@@ -3848,19 +3848,19 @@
         <v>149</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q19" s="2">
@@ -3869,7 +3869,7 @@
       <c r="R19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T19" s="2" t="s">
@@ -3882,7 +3882,7 @@
         <v>34</v>
       </c>
       <c r="W19" s="2"/>
-      <c r="X19" s="8">
+      <c r="X19" s="6">
         <v>100</v>
       </c>
       <c r="Y19" s="2">
@@ -3940,20 +3940,20 @@
       <c r="AQ19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR19" s="7" t="s">
+      <c r="AR19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS19" s="7" t="s">
+      <c r="AS19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT19" s="7" t="s">
+      <c r="AT19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU19" s="7" t="s">
+      <c r="AU19" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
@@ -3985,19 +3985,19 @@
         <v>152</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q20" s="2">
@@ -4006,7 +4006,7 @@
       <c r="R20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T20" s="2" t="s">
@@ -4021,7 +4021,7 @@
       <c r="W20" s="2">
         <v>27</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="6">
         <v>100</v>
       </c>
       <c r="Y20" s="2">
@@ -4081,20 +4081,20 @@
       <c r="AQ20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR20" s="7" t="s">
+      <c r="AR20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS20" s="7" t="s">
+      <c r="AS20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT20" s="7" t="s">
+      <c r="AT20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU20" s="7" t="s">
+      <c r="AU20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>154</v>
       </c>
@@ -4126,19 +4126,19 @@
         <v>155</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q21" s="2">
@@ -4147,7 +4147,7 @@
       <c r="R21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="T21" s="2" t="s">
@@ -4162,7 +4162,7 @@
       <c r="W21" s="2">
         <v>26.6</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="6">
         <v>79</v>
       </c>
       <c r="Y21" s="2">
@@ -4220,20 +4220,20 @@
       <c r="AQ21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AR21" s="7" t="s">
+      <c r="AR21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS21" s="7" t="s">
+      <c r="AS21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AT21" s="7" t="s">
+      <c r="AT21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AU21" s="7" t="s">
+      <c r="AU21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>274</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>283</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -8278,51 +8278,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="5" t="s">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="5" t="s">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BF9BF-E433-44B9-9F5F-8F34D560DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7211B4A-0A1A-4D03-999C-6F2CA90FD38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +971,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -984,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -998,6 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1280,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1299,7 @@
     <col min="10" max="10" width="98.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="39.7109375" customWidth="1"/>
     <col min="21" max="21" width="33.28515625" customWidth="1"/>
@@ -1346,13 +1354,13 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -1382,7 +1390,7 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -1487,13 +1495,13 @@
         <v>48</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1523,7 +1531,7 @@
       <c r="W2" s="2">
         <v>36.1</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="3">
         <v>58</v>
       </c>
       <c r="Y2" s="2">
@@ -1628,13 +1636,13 @@
         <v>61</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="9" t="s">
         <v>63</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -1662,7 +1670,7 @@
         <v>36.9</v>
       </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="6">
+      <c r="X3" s="3">
         <v>91</v>
       </c>
       <c r="Y3" s="2">
@@ -1765,13 +1773,13 @@
         <v>68</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -1799,7 +1807,7 @@
         <v>36</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="X4" s="6">
+      <c r="X4" s="3">
         <v>97</v>
       </c>
       <c r="Y4" s="2">
@@ -1902,13 +1910,13 @@
         <v>76</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1936,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="W5" s="2"/>
-      <c r="X5" s="6">
+      <c r="X5" s="3">
         <v>55</v>
       </c>
       <c r="Y5" s="2">
@@ -2037,13 +2045,13 @@
         <v>82</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="9" t="s">
         <v>70</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -2073,7 +2081,7 @@
       <c r="W6" s="2">
         <v>29.8</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="3">
         <v>93</v>
       </c>
       <c r="Y6" s="2">
@@ -2178,13 +2186,13 @@
         <v>85</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="9" t="s">
         <v>87</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2214,7 +2222,7 @@
       <c r="W7" s="2">
         <v>29.2</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="3">
         <v>100</v>
       </c>
       <c r="Y7" s="2">
@@ -2317,13 +2325,13 @@
         <v>91</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -2351,7 +2359,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="6">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="2">
@@ -2454,13 +2462,13 @@
         <v>94</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -2490,7 +2498,7 @@
       <c r="W9" s="2">
         <v>30</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="3">
         <v>92</v>
       </c>
       <c r="Y9" s="2">
@@ -2595,13 +2603,13 @@
         <v>101</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="9" t="s">
         <v>103</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -2631,7 +2639,7 @@
       <c r="W10" s="2">
         <v>31.8</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="3">
         <v>70</v>
       </c>
       <c r="Y10" s="2">
@@ -2734,13 +2742,13 @@
         <v>108</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="9" t="s">
         <v>110</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -2770,7 +2778,7 @@
       <c r="W11" s="2">
         <v>28.7</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="3">
         <v>100</v>
       </c>
       <c r="Y11" s="2">
@@ -2875,13 +2883,13 @@
         <v>114</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="9" t="s">
         <v>70</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -2911,7 +2919,7 @@
       <c r="W12" s="2">
         <v>29.6</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="2">
@@ -3016,13 +3024,13 @@
         <v>119</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="9" t="s">
         <v>70</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -3052,7 +3060,7 @@
       <c r="W13" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="3">
         <v>96</v>
       </c>
       <c r="Y13" s="2">
@@ -3155,13 +3163,13 @@
         <v>123</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -3191,7 +3199,7 @@
       <c r="W14" s="2">
         <v>24.4</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="3">
         <v>96</v>
       </c>
       <c r="Y14" s="2">
@@ -3296,13 +3304,13 @@
         <v>127</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="9" t="s">
         <v>129</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -3332,7 +3340,7 @@
       <c r="W15" s="2">
         <v>28.6</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="3">
         <v>93</v>
       </c>
       <c r="Y15" s="2">
@@ -3439,13 +3447,13 @@
       <c r="K16" s="2">
         <v>48999</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="9" t="s">
         <v>135</v>
       </c>
       <c r="O16" s="6" t="s">
@@ -3473,7 +3481,7 @@
         <v>33.1</v>
       </c>
       <c r="W16" s="2"/>
-      <c r="X16" s="6">
+      <c r="X16" s="3">
         <v>92</v>
       </c>
       <c r="Y16" s="2">
@@ -3576,13 +3584,13 @@
       <c r="K17" s="2">
         <v>22549</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="9" t="s">
         <v>135</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -3610,7 +3618,7 @@
         <v>33.1</v>
       </c>
       <c r="W17" s="2"/>
-      <c r="X17" s="6">
+      <c r="X17" s="3">
         <v>92</v>
       </c>
       <c r="Y17" s="2">
@@ -3711,13 +3719,13 @@
         <v>145</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="9" t="s">
         <v>147</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -3745,7 +3753,7 @@
         <v>34</v>
       </c>
       <c r="W18" s="2"/>
-      <c r="X18" s="6">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="2">
@@ -3848,13 +3856,13 @@
         <v>149</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="9" t="s">
         <v>147</v>
       </c>
       <c r="O19" s="6" t="s">
@@ -3882,7 +3890,7 @@
         <v>34</v>
       </c>
       <c r="W19" s="2"/>
-      <c r="X19" s="6">
+      <c r="X19" s="3">
         <v>100</v>
       </c>
       <c r="Y19" s="2">
@@ -3985,13 +3993,13 @@
         <v>152</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="9" t="s">
         <v>147</v>
       </c>
       <c r="O20" s="6" t="s">
@@ -4021,7 +4029,7 @@
       <c r="W20" s="2">
         <v>27</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="2">
@@ -4126,13 +4134,13 @@
         <v>155</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="9" t="s">
         <v>156</v>
       </c>
       <c r="O21" s="6" t="s">
@@ -4162,7 +4170,7 @@
       <c r="W21" s="2">
         <v>26.6</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="3">
         <v>79</v>
       </c>
       <c r="Y21" s="2">

--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7211B4A-0A1A-4D03-999C-6F2CA90FD38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6E27F-B133-4980-B6DC-742BFC496F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,12 +971,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -990,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1004,7 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1287,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,16 +1347,16 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -1495,16 +1488,16 @@
         <v>48</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -1636,16 +1629,16 @@
         <v>61</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1773,16 +1766,16 @@
         <v>68</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1910,16 +1903,16 @@
         <v>76</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -2045,16 +2038,16 @@
         <v>82</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -2186,16 +2179,16 @@
         <v>85</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="P7" s="6" t="s">
@@ -2325,16 +2318,16 @@
         <v>91</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -2462,16 +2455,16 @@
         <v>94</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -2603,16 +2596,16 @@
         <v>101</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -2742,16 +2735,16 @@
         <v>108</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -2883,16 +2876,16 @@
         <v>114</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3024,16 +3017,16 @@
         <v>119</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="2" t="s">
         <v>120</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P13" s="6" t="s">
@@ -3163,16 +3156,16 @@
         <v>123</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="2" t="s">
         <v>124</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -3304,16 +3297,16 @@
         <v>127</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="2" t="s">
         <v>130</v>
       </c>
       <c r="P15" s="6" t="s">
@@ -3447,16 +3440,16 @@
       <c r="K16" s="2">
         <v>48999</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="2" t="s">
         <v>134</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -3584,16 +3577,16 @@
       <c r="K17" s="2">
         <v>22549</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="2" t="s">
         <v>140</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="2" t="s">
         <v>142</v>
       </c>
       <c r="P17" s="6" t="s">
@@ -3719,16 +3712,16 @@
         <v>145</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P18" s="6" t="s">
@@ -3856,16 +3849,16 @@
         <v>149</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P19" s="6" t="s">
@@ -3993,16 +3986,16 @@
         <v>152</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="2" t="s">
         <v>153</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P20" s="6" t="s">
@@ -4134,16 +4127,16 @@
         <v>155</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="2" t="s">
         <v>157</v>
       </c>
       <c r="P21" s="6" t="s">

--- a/Data Analytics/Temp_Data_50_rows.xlsx
+++ b/Data Analytics/Temp_Data_50_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strat\OneDrive\Έγγραφα\GitHub\DataAnalytics\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6E27F-B133-4980-B6DC-742BFC496F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88AAD3-301A-4D20-B4C0-191639138F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O22"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
